--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,325 +1,445 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhXjWuQxopUDG9UUJvE/ooZgUVWQw=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
-  <si>
-    <t>usuario_id</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>data_reproducao</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>data_assinatura</t>
-  </si>
-  <si>
-    <t>valor_plano</t>
-  </si>
-  <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
-    <t>Barbara Liskov</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"; "VIRGO’S GROOVE"; "Feeling Good"</t>
-  </si>
-  <si>
-    <t>"2022-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"</t>
-  </si>
-  <si>
-    <t>gratuito</t>
-  </si>
-  <si>
-    <t>2019-10-20</t>
-  </si>
-  <si>
-    <t>Beyoncé; Queen; Elis Regina</t>
-  </si>
-  <si>
-    <t>Robert Cecil Martin</t>
-  </si>
-  <si>
-    <t>"Feeling Good"; "O Medo de Amar é o Medo de Ser Livre"</t>
-  </si>
-  <si>
-    <t>"2022-08-05 08:05:17"; "2020-01-02 07:40:33"</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>Beyoncé; Elis Regina</t>
-  </si>
-  <si>
-    <t>Ada Lovelace</t>
-  </si>
-  <si>
-    <t>"Feeling Good"; "VIRGO’S GROOVE"</t>
-  </si>
-  <si>
-    <t>"2020-11-13 16:55:13"; "2020-12-05 18:38:30"</t>
-  </si>
-  <si>
-    <t>familiar</t>
-  </si>
-  <si>
-    <t>2017-12-30</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Martin Fowler</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+  <si>
+    <t xml:space="preserve">usuario_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico_de_reproducoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_reproducao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_assinatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor_plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguindo_artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Liskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"; "VIRGO’S GROOVE"; "Feeling Good"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gratuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé; Queen; Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Cecil Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"; "O Medo de Amar é o Medo de Ser Livre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-08-05 08:05:17"; "2020-01-02 07:40:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé; Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada Lovelace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"; "VIRGO’S GROOVE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-11-13 16:55:13"; "2020-12-05 18:38:30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"</t>
   </si>
   <si>
     <t xml:space="preserve">"2021-08-15 17:10:10"; </t>
   </si>
   <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>Baco Exu do Blues</t>
-  </si>
-  <si>
-    <t>Sandi Metz</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"; "Under Pressure"</t>
-  </si>
-  <si>
-    <t>"2022-01-09 01:44:33"; "2020-08-06 15:23:43"</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t>Blind Guardian; Nina Simone</t>
-  </si>
-  <si>
-    <t>Paulo Freire</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre"; "BREAK MY SOUL"</t>
-  </si>
-  <si>
-    <t>"2017-01-24 00:31:17"; "2017-10-12 12:35:20"</t>
-  </si>
-  <si>
-    <t>universitário</t>
-  </si>
-  <si>
-    <t>2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nina Simone; Beyoncé
-</t>
-  </si>
-  <si>
-    <t>Bell Hooks</t>
-  </si>
-  <si>
-    <t>"Don’t Stop Me Now"</t>
-  </si>
-  <si>
-    <t>"2011-12-15 22:30:49"</t>
-  </si>
-  <si>
-    <t>2018-01-05</t>
-  </si>
-  <si>
-    <t>Nina Simone</t>
-  </si>
-  <si>
-    <t>Christopher Alexander</t>
-  </si>
-  <si>
-    <t>"2012-03-17 14:56:41"</t>
-  </si>
-  <si>
-    <t>pessoal</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>Judith Butler</t>
-  </si>
-  <si>
-    <t>"The Bard’s Song"</t>
-  </si>
-  <si>
-    <t>"2022-02-24 21:14:22"</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>Elis Regina</t>
-  </si>
-  <si>
-    <t>Jorge Amado</t>
-  </si>
-  <si>
-    <t>"ALIEN SUPERSTAR"</t>
-  </si>
-  <si>
-    <t>"2015-12-13 08:30:22"</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen
-</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>artista</t>
-  </si>
-  <si>
-    <t>cancoes</t>
-  </si>
-  <si>
-    <t>duracao_segundos</t>
-  </si>
-  <si>
-    <t>ano_lancamento</t>
-  </si>
-  <si>
-    <t>Renaissance</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>"BREAK MY SOUL"; "VIRGO’S GROOVE"; "ALIEN SUPERSTAR"</t>
-  </si>
-  <si>
-    <t>279; 369; 116</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Jazz</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>Hot Space</t>
-  </si>
-  <si>
-    <t>"Under Pressure"</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>Falso Brilhante</t>
-  </si>
-  <si>
-    <t>"Como Nossos Pais"</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>Vento de Maio</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre"</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>QVVJFA?</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>Somewhere Far Beyond</t>
-  </si>
-  <si>
-    <t>Blind Guardian</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>I Put A Spell On You</t>
-  </si>
-  <si>
-    <t>"Feeling Good"</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t xml:space="preserve">2017-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baco Exu do Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandi Metz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"; "Under Pressure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-01-09 01:44:33"; "2020-08-06 15:23:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind Guardian; Nina Simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Freire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre"; "BREAK MY SOUL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2017-01-24 00:31:17"; "2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">universitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Simone; Beyoncé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bell Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Don’t Stop Me Now"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2011-12-15 22:30:49"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2012-03-17 14:56:41"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Bard’s Song"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-24 21:14:22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Amado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2015-12-13 08:30:22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">album_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duracao_segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano_lancamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"BREAK MY SOUL"; "VIRGO’S GROOVE"; "ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279; 369; 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Under Pressure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falso Brilhante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Como Nossos Pais"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vento de Maio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVVJFA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhere Far Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Put A Spell On You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBUNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANÇÕES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artista_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancao_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"BREAK MY SOUL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"VIRGO’S GROOVE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-28 10:45:55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-05-02 05:30:35"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-03-06 11:22:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-08-05 08:05:17"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-01-02 07:40:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-11-13 16:55:13"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-12-05 18:38:30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2021-08-15 17:10:10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-01-09 01:44:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-08-06 15:23:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2017-01-24 00:31:17"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,339 +447,203 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0000FF"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.29"/>
-    <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="52.86"/>
-    <col customWidth="1" min="5" max="5" width="46.14"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="16.29"/>
-    <col customWidth="1" min="8" max="8" width="13.71"/>
-    <col customWidth="1" min="9" max="9" width="10.57"/>
-    <col customWidth="1" min="10" max="10" width="25.71"/>
-    <col customWidth="1" min="11" max="25" width="8.86"/>
-    <col customWidth="1" min="26" max="27" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="14.57"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,15 +692,15 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
-      <c r="A2" s="9">
-        <v>1.0</v>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
-        <v>82.0</v>
+      <c r="C2" s="9" t="n">
+        <v>82</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -730,11 +714,11 @@
       <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1.0</v>
+      <c r="H2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>14</v>
@@ -757,15 +741,15 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="9">
-        <v>2.0</v>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
-        <v>58.0</v>
+      <c r="C3" s="9" t="n">
+        <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>16</v>
@@ -779,11 +763,11 @@
       <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2.0</v>
+      <c r="H3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>2</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>19</v>
@@ -806,15 +790,15 @@
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="9">
-        <v>3.0</v>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9">
-        <v>37.0</v>
+      <c r="C4" s="9" t="n">
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>21</v>
@@ -828,11 +812,11 @@
       <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="13" t="n">
         <v>7.99</v>
       </c>
-      <c r="I4" s="14">
-        <v>3.0</v>
+      <c r="I4" s="14" t="n">
+        <v>3</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>25</v>
@@ -855,15 +839,15 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="9">
-        <v>4.0</v>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9">
-        <v>46.0</v>
+      <c r="C5" s="9" t="n">
+        <v>46</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>27</v>
@@ -877,11 +861,11 @@
       <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="13" t="n">
         <v>7.99</v>
       </c>
-      <c r="I5" s="14">
-        <v>4.0</v>
+      <c r="I5" s="14" t="n">
+        <v>4</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>30</v>
@@ -904,15 +888,15 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="9">
-        <v>5.0</v>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9">
-        <v>58.0</v>
+      <c r="C6" s="9" t="n">
+        <v>58</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>32</v>
@@ -926,11 +910,11 @@
       <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="16" t="n">
         <v>7.99</v>
       </c>
-      <c r="I6" s="14">
-        <v>5.0</v>
+      <c r="I6" s="14" t="n">
+        <v>5</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>35</v>
@@ -953,15 +937,15 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="9">
-        <v>6.0</v>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9">
-        <v>19.0</v>
+      <c r="C7" s="9" t="n">
+        <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>37</v>
@@ -975,11 +959,11 @@
       <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="13" t="n">
         <v>5.99</v>
       </c>
-      <c r="I7" s="14">
-        <v>6.0</v>
+      <c r="I7" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>41</v>
@@ -1002,15 +986,15 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="9">
-        <v>7.0</v>
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9">
-        <v>26.0</v>
+      <c r="C8" s="9" t="n">
+        <v>26</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>43</v>
@@ -1024,11 +1008,11 @@
       <c r="G8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="16" t="n">
         <v>5.99</v>
       </c>
-      <c r="I8" s="14">
-        <v>7.0</v>
+      <c r="I8" s="14" t="n">
+        <v>7</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>46</v>
@@ -1051,15 +1035,15 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="9">
-        <v>8.0</v>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9">
-        <v>85.0</v>
+      <c r="C9" s="9" t="n">
+        <v>85</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>43</v>
@@ -1073,11 +1057,11 @@
       <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="13" t="n">
         <v>6.99</v>
       </c>
-      <c r="I9" s="14">
-        <v>8.0</v>
+      <c r="I9" s="14" t="n">
+        <v>8</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="7"/>
@@ -1098,15 +1082,15 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="9">
-        <v>9.0</v>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9">
-        <v>45.0</v>
+      <c r="C10" s="9" t="n">
+        <v>45</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>52</v>
@@ -1120,11 +1104,11 @@
       <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="13" t="n">
         <v>6.99</v>
       </c>
-      <c r="I10" s="14">
-        <v>9.0</v>
+      <c r="I10" s="14" t="n">
+        <v>9</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>55</v>
@@ -1147,15 +1131,15 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="9">
-        <v>10.0</v>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="9">
-        <v>58.0</v>
+      <c r="C11" s="9" t="n">
+        <v>58</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>57</v>
@@ -1169,14 +1153,14 @@
       <c r="G11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="13" t="n">
         <v>6.99</v>
       </c>
-      <c r="I11" s="14">
-        <v>10.0</v>
+      <c r="I11" s="14" t="n">
+        <v>10</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
@@ -1196,7 +1180,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1">
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="15"/>
       <c r="C12" s="17"/>
@@ -1225,24 +1209,24 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="22"/>
@@ -1266,24 +1250,24 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="9">
-        <v>1.0</v>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
@@ -1307,12 +1291,12 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="9">
-        <v>2.0</v>
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>25</v>
@@ -1320,11 +1304,11 @@
       <c r="D15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9">
-        <v>203.0</v>
+      <c r="E15" s="9" t="n">
+        <v>203</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
@@ -1348,24 +1332,24 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="9">
-        <v>3.0</v>
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="9">
-        <v>152.0</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="20"/>
@@ -1389,24 +1373,24 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="9">
-        <v>4.0</v>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" s="9">
-        <v>105.0</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -1430,24 +1414,24 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
     </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="9">
-        <v>5.0</v>
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>5</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" s="9">
-        <v>207.0</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20"/>
@@ -1471,12 +1455,12 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="9">
-        <v>6.0</v>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>30</v>
@@ -1484,11 +1468,11 @@
       <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9">
-        <v>267.0</v>
+      <c r="E19" s="9" t="n">
+        <v>267</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="20"/>
@@ -1512,24 +1496,24 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="9">
-        <v>7.0</v>
+    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="9">
-        <v>244.0</v>
+      <c r="E20" s="9" t="n">
+        <v>244</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
@@ -1553,24 +1537,24 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="9">
-        <v>8.0</v>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>8</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20"/>
@@ -1594,7 +1578,7 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
@@ -1623,7 +1607,7 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17"/>
       <c r="B23" s="15"/>
       <c r="C23" s="17"/>
@@ -1652,15 +1636,27 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="20"/>
+      <c r="D24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -1681,15 +1677,27 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="20"/>
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -1710,15 +1718,27 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I26" s="17"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -1739,15 +1759,27 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="20"/>
+      <c r="D27" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="I27" s="17"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -1768,15 +1800,27 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="I28" s="17"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -1797,15 +1841,27 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="20"/>
+      <c r="D29" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="17"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -1826,15 +1882,25 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="20"/>
+      <c r="D30" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -1855,15 +1921,25 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17"/>
       <c r="B31" s="15"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="20"/>
+      <c r="D31" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I31" s="17"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -1884,15 +1960,25 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
       <c r="B32" s="15"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="20"/>
+      <c r="D32" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="G32" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -1913,15 +1999,25 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
       <c r="B33" s="15"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="20"/>
+      <c r="D33" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="I33" s="17"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -1942,15 +2038,25 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
       <c r="B34" s="15"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="20"/>
+      <c r="D34" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="G34" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="I34" s="17"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -1971,7 +2077,7 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
       <c r="C35" s="17"/>
@@ -2000,12 +2106,16 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="15"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" s="25"/>
       <c r="G36" s="15"/>
       <c r="H36" s="20"/>
@@ -2029,12 +2139,16 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="F37" s="25"/>
       <c r="G37" s="15"/>
       <c r="H37" s="20"/>
@@ -2058,12 +2172,16 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="15"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="F38" s="25"/>
       <c r="G38" s="15"/>
       <c r="H38" s="20"/>
@@ -2087,12 +2205,16 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
       <c r="B39" s="15"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F39" s="25"/>
       <c r="G39" s="15"/>
       <c r="H39" s="20"/>
@@ -2116,12 +2238,16 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
       <c r="B40" s="15"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="D40" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="15"/>
       <c r="H40" s="20"/>
@@ -2145,12 +2271,16 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="15"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="F41" s="25"/>
       <c r="G41" s="15"/>
       <c r="H41" s="20"/>
@@ -2174,12 +2304,16 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="15"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F42" s="25"/>
       <c r="G42" s="15"/>
       <c r="H42" s="20"/>
@@ -2203,13 +2337,10 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
       <c r="B43" s="15"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="25"/>
       <c r="G43" s="15"/>
       <c r="H43" s="20"/>
       <c r="I43" s="17"/>
@@ -2232,13 +2363,19 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="B44" s="15"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="25"/>
+      <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G44" s="15"/>
       <c r="H44" s="20"/>
       <c r="I44" s="17"/>
@@ -2261,13 +2398,19 @@
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="15"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="25"/>
+      <c r="D45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="G45" s="15"/>
       <c r="H45" s="20"/>
       <c r="I45" s="17"/>
@@ -2290,13 +2433,19 @@
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="25"/>
+      <c r="D46" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" s="15"/>
       <c r="H46" s="20"/>
       <c r="I46" s="17"/>
@@ -2319,13 +2468,19 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="25"/>
+      <c r="D47" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="G47" s="15"/>
       <c r="H47" s="20"/>
       <c r="I47" s="17"/>
@@ -2348,13 +2503,19 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="B48" s="15"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="25"/>
+      <c r="D48" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="G48" s="15"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17"/>
@@ -2377,13 +2538,19 @@
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
       <c r="B49" s="15"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="25"/>
+      <c r="D49" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="15"/>
       <c r="H49" s="20"/>
       <c r="I49" s="17"/>
@@ -2406,13 +2573,19 @@
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
       <c r="B50" s="15"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="25"/>
+      <c r="D50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
       <c r="I50" s="17"/>
@@ -2435,13 +2608,19 @@
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
       <c r="B51" s="15"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="25"/>
+      <c r="D51" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="20"/>
       <c r="I51" s="17"/>
@@ -2464,13 +2643,19 @@
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
       <c r="B52" s="15"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="25"/>
+      <c r="D52" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="G52" s="15"/>
       <c r="H52" s="20"/>
       <c r="I52" s="17"/>
@@ -2493,7 +2678,7 @@
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
       <c r="C53" s="17"/>
@@ -2522,16 +2707,28 @@
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
       <c r="B54" s="15"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="17"/>
+      <c r="D54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -2551,16 +2748,28 @@
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="B55" s="15"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="17"/>
+      <c r="D55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10" t="n">
+        <v>279</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -2580,16 +2789,28 @@
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
       <c r="B56" s="15"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="17"/>
+      <c r="D56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10" t="n">
+        <v>369</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -2609,16 +2830,28 @@
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
       <c r="B57" s="15"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="17"/>
+      <c r="D57" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
@@ -2638,16 +2871,28 @@
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
       <c r="B58" s="15"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="17"/>
+      <c r="D58" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -2667,16 +2912,28 @@
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="15"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="17"/>
+      <c r="D59" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>152</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
@@ -2696,16 +2953,28 @@
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="15"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="17"/>
+      <c r="D60" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -2725,16 +2994,28 @@
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="15"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="17"/>
+      <c r="D61" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -2754,16 +3035,28 @@
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="15"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="17"/>
+      <c r="D62" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>267</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
@@ -2783,16 +3076,28 @@
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="15"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="17"/>
+      <c r="D63" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>244</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -2812,16 +3117,28 @@
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="15"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="17"/>
+      <c r="D64" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -2841,7 +3158,7 @@
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="15"/>
       <c r="C65" s="17"/>
@@ -2870,13 +3187,19 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="15"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="25"/>
+      <c r="D66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G66" s="15"/>
       <c r="H66" s="20"/>
       <c r="I66" s="17"/>
@@ -2899,13 +3222,19 @@
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="15"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="25"/>
+      <c r="D67" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" s="15"/>
       <c r="H67" s="20"/>
       <c r="I67" s="17"/>
@@ -2928,13 +3257,19 @@
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="15"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="25"/>
+      <c r="D68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>7.99</v>
+      </c>
       <c r="G68" s="15"/>
       <c r="H68" s="20"/>
       <c r="I68" s="17"/>
@@ -2957,13 +3292,19 @@
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="15"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="25"/>
+      <c r="D69" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>5.99</v>
+      </c>
       <c r="G69" s="15"/>
       <c r="H69" s="20"/>
       <c r="I69" s="17"/>
@@ -2986,13 +3327,19 @@
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="15"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="25"/>
+      <c r="D70" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>6.99</v>
+      </c>
       <c r="G70" s="15"/>
       <c r="H70" s="20"/>
       <c r="I70" s="17"/>
@@ -3015,7 +3362,7 @@
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="15"/>
       <c r="C71" s="17"/>
@@ -3044,14 +3391,20 @@
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="15"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="15"/>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="1"/>
       <c r="H72" s="20"/>
       <c r="I72" s="17"/>
       <c r="J72" s="15"/>
@@ -3073,13 +3426,19 @@
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="15"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="25"/>
+      <c r="D73" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="G73" s="15"/>
       <c r="H73" s="20"/>
       <c r="I73" s="17"/>
@@ -3102,13 +3461,19 @@
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="15"/>
       <c r="C74" s="17"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="25"/>
+      <c r="D74" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="G74" s="15"/>
       <c r="H74" s="20"/>
       <c r="I74" s="17"/>
@@ -3131,13 +3496,19 @@
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="15"/>
       <c r="C75" s="17"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="25"/>
+      <c r="D75" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="G75" s="15"/>
       <c r="H75" s="20"/>
       <c r="I75" s="17"/>
@@ -3160,13 +3531,19 @@
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="15"/>
       <c r="C76" s="17"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="25"/>
+      <c r="D76" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="G76" s="15"/>
       <c r="H76" s="20"/>
       <c r="I76" s="17"/>
@@ -3189,13 +3566,19 @@
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="15"/>
       <c r="C77" s="17"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="25"/>
+      <c r="D77" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="G77" s="15"/>
       <c r="H77" s="20"/>
       <c r="I77" s="17"/>
@@ -3218,13 +3601,19 @@
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="15"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="25"/>
+      <c r="D78" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="G78" s="15"/>
       <c r="H78" s="20"/>
       <c r="I78" s="17"/>
@@ -3247,13 +3636,19 @@
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="15"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="25"/>
+      <c r="D79" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="G79" s="15"/>
       <c r="H79" s="20"/>
       <c r="I79" s="17"/>
@@ -3276,13 +3671,19 @@
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="15"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="25"/>
+      <c r="D80" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="G80" s="15"/>
       <c r="H80" s="20"/>
       <c r="I80" s="17"/>
@@ -3305,13 +3706,19 @@
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="15"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="25"/>
+      <c r="D81" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="G81" s="15"/>
       <c r="H81" s="20"/>
       <c r="I81" s="17"/>
@@ -3334,13 +3741,19 @@
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="17"/>
       <c r="B82" s="15"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="25"/>
+      <c r="D82" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="G82" s="15"/>
       <c r="H82" s="20"/>
       <c r="I82" s="17"/>
@@ -3363,13 +3776,19 @@
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
       <c r="B83" s="15"/>
       <c r="C83" s="17"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="25"/>
+      <c r="D83" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="G83" s="15"/>
       <c r="H83" s="20"/>
       <c r="I83" s="17"/>
@@ -3392,13 +3811,19 @@
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="17"/>
       <c r="B84" s="15"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="25"/>
+      <c r="D84" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="G84" s="15"/>
       <c r="H84" s="20"/>
       <c r="I84" s="17"/>
@@ -3421,13 +3846,19 @@
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="15"/>
       <c r="C85" s="17"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="25"/>
+      <c r="D85" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="G85" s="15"/>
       <c r="H85" s="20"/>
       <c r="I85" s="17"/>
@@ -3450,13 +3881,19 @@
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="15"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="25"/>
+      <c r="D86" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="G86" s="15"/>
       <c r="H86" s="20"/>
       <c r="I86" s="17"/>
@@ -3479,13 +3916,19 @@
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="15"/>
       <c r="C87" s="17"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="25"/>
+      <c r="D87" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="G87" s="15"/>
       <c r="H87" s="20"/>
       <c r="I87" s="17"/>
@@ -3508,13 +3951,19 @@
       <c r="Z87" s="7"/>
       <c r="AA87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="15"/>
       <c r="C88" s="17"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="25"/>
+      <c r="D88" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="G88" s="15"/>
       <c r="H88" s="20"/>
       <c r="I88" s="17"/>
@@ -3537,7 +3986,7 @@
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="B89" s="15"/>
       <c r="C89" s="17"/>
@@ -3566,14 +4015,20 @@
       <c r="Z89" s="7"/>
       <c r="AA89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="15"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F90" s="25"/>
-      <c r="G90" s="15"/>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H90" s="20"/>
       <c r="I90" s="17"/>
       <c r="J90" s="15"/>
@@ -3595,14 +4050,20 @@
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="B91" s="15"/>
       <c r="C91" s="17"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="D91" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="F91" s="25"/>
-      <c r="G91" s="15"/>
+      <c r="G91" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H91" s="20"/>
       <c r="I91" s="17"/>
       <c r="J91" s="15"/>
@@ -3624,14 +4085,20 @@
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="B92" s="15"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="D92" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="27" t="n">
+        <v>2</v>
+      </c>
       <c r="F92" s="25"/>
-      <c r="G92" s="15"/>
+      <c r="G92" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="H92" s="20"/>
       <c r="I92" s="17"/>
       <c r="J92" s="15"/>
@@ -3653,14 +4120,20 @@
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="15"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="27" t="n">
+        <v>3</v>
+      </c>
       <c r="F93" s="25"/>
-      <c r="G93" s="15"/>
+      <c r="G93" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="H93" s="20"/>
       <c r="I93" s="17"/>
       <c r="J93" s="15"/>
@@ -3682,14 +4155,20 @@
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
       <c r="B94" s="15"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="F94" s="25"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H94" s="20"/>
       <c r="I94" s="17"/>
       <c r="J94" s="15"/>
@@ -3711,14 +4190,20 @@
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
       <c r="B95" s="15"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" s="27" t="n">
+        <v>3</v>
+      </c>
       <c r="F95" s="25"/>
-      <c r="G95" s="15"/>
+      <c r="G95" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="H95" s="20"/>
       <c r="I95" s="17"/>
       <c r="J95" s="15"/>
@@ -3740,14 +4225,20 @@
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="15"/>
       <c r="C96" s="17"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" s="27" t="n">
+        <v>2</v>
+      </c>
       <c r="F96" s="25"/>
-      <c r="G96" s="15"/>
+      <c r="G96" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H96" s="20"/>
       <c r="I96" s="17"/>
       <c r="J96" s="15"/>
@@ -3769,14 +4260,20 @@
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="17"/>
       <c r="B97" s="15"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
+      <c r="D97" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" s="27" t="n">
+        <v>4</v>
+      </c>
       <c r="F97" s="25"/>
-      <c r="G97" s="15"/>
+      <c r="G97" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H97" s="20"/>
       <c r="I97" s="17"/>
       <c r="J97" s="15"/>
@@ -3798,14 +4295,20 @@
       <c r="Z97" s="7"/>
       <c r="AA97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="17"/>
       <c r="B98" s="15"/>
       <c r="C98" s="17"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
+      <c r="D98" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" s="27" t="n">
+        <v>5</v>
+      </c>
       <c r="F98" s="25"/>
-      <c r="G98" s="15"/>
+      <c r="G98" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H98" s="20"/>
       <c r="I98" s="17"/>
       <c r="J98" s="15"/>
@@ -3827,14 +4330,20 @@
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="15"/>
       <c r="C99" s="17"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="F99" s="25"/>
-      <c r="G99" s="15"/>
+      <c r="G99" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="H99" s="20"/>
       <c r="I99" s="17"/>
       <c r="J99" s="15"/>
@@ -3856,14 +4365,20 @@
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="17"/>
       <c r="B100" s="15"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="D100" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="F100" s="25"/>
-      <c r="G100" s="15"/>
+      <c r="G100" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="H100" s="20"/>
       <c r="I100" s="17"/>
       <c r="J100" s="15"/>
@@ -3885,14 +4400,20 @@
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="17"/>
       <c r="B101" s="15"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
+      <c r="D101" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="F101" s="25"/>
-      <c r="G101" s="15"/>
+      <c r="G101" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="H101" s="20"/>
       <c r="I101" s="17"/>
       <c r="J101" s="15"/>
@@ -3914,14 +4435,20 @@
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="17"/>
       <c r="B102" s="15"/>
       <c r="C102" s="17"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
+      <c r="D102" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" s="27" t="n">
+        <v>6</v>
+      </c>
       <c r="F102" s="25"/>
-      <c r="G102" s="15"/>
+      <c r="G102" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="H102" s="20"/>
       <c r="I102" s="17"/>
       <c r="J102" s="15"/>
@@ -3943,14 +4470,20 @@
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="17"/>
       <c r="B103" s="15"/>
       <c r="C103" s="17"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
+      <c r="D103" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="F103" s="25"/>
-      <c r="G103" s="15"/>
+      <c r="G103" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="H103" s="20"/>
       <c r="I103" s="17"/>
       <c r="J103" s="15"/>
@@ -3972,14 +4505,20 @@
       <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="17"/>
       <c r="B104" s="15"/>
       <c r="C104" s="17"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
+      <c r="D104" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E104" s="27" t="n">
+        <v>3</v>
+      </c>
       <c r="F104" s="25"/>
-      <c r="G104" s="15"/>
+      <c r="G104" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="H104" s="20"/>
       <c r="I104" s="17"/>
       <c r="J104" s="15"/>
@@ -4001,14 +4540,20 @@
       <c r="Z104" s="7"/>
       <c r="AA104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="17"/>
       <c r="B105" s="15"/>
       <c r="C105" s="17"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
+      <c r="D105" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" s="27" t="n">
+        <v>2</v>
+      </c>
       <c r="F105" s="25"/>
-      <c r="G105" s="15"/>
+      <c r="G105" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="H105" s="20"/>
       <c r="I105" s="17"/>
       <c r="J105" s="15"/>
@@ -4030,7 +4575,7 @@
       <c r="Z105" s="7"/>
       <c r="AA105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="17"/>
       <c r="B106" s="15"/>
       <c r="C106" s="17"/>
@@ -4059,7 +4604,7 @@
       <c r="Z106" s="7"/>
       <c r="AA106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="17"/>
       <c r="B107" s="15"/>
       <c r="C107" s="17"/>
@@ -4088,7 +4633,7 @@
       <c r="Z107" s="7"/>
       <c r="AA107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="17"/>
       <c r="B108" s="15"/>
       <c r="C108" s="17"/>
@@ -4117,7 +4662,7 @@
       <c r="Z108" s="7"/>
       <c r="AA108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="17"/>
       <c r="B109" s="15"/>
       <c r="C109" s="17"/>
@@ -4146,7 +4691,7 @@
       <c r="Z109" s="7"/>
       <c r="AA109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="17"/>
       <c r="B110" s="15"/>
       <c r="C110" s="17"/>
@@ -4175,7 +4720,7 @@
       <c r="Z110" s="7"/>
       <c r="AA110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="17"/>
       <c r="B111" s="15"/>
       <c r="C111" s="17"/>
@@ -4204,7 +4749,7 @@
       <c r="Z111" s="7"/>
       <c r="AA111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="17"/>
       <c r="B112" s="15"/>
       <c r="C112" s="17"/>
@@ -4233,7 +4778,7 @@
       <c r="Z112" s="7"/>
       <c r="AA112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="17"/>
       <c r="B113" s="15"/>
       <c r="C113" s="17"/>
@@ -4262,7 +4807,7 @@
       <c r="Z113" s="7"/>
       <c r="AA113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="17"/>
       <c r="B114" s="15"/>
       <c r="C114" s="17"/>
@@ -4291,7 +4836,7 @@
       <c r="Z114" s="7"/>
       <c r="AA114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="17"/>
       <c r="B115" s="15"/>
       <c r="C115" s="17"/>
@@ -4320,7 +4865,7 @@
       <c r="Z115" s="7"/>
       <c r="AA115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="17"/>
       <c r="B116" s="15"/>
       <c r="C116" s="17"/>
@@ -4349,7 +4894,7 @@
       <c r="Z116" s="7"/>
       <c r="AA116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="17"/>
       <c r="B117" s="15"/>
       <c r="C117" s="17"/>
@@ -4378,7 +4923,7 @@
       <c r="Z117" s="7"/>
       <c r="AA117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
       <c r="B118" s="15"/>
       <c r="C118" s="17"/>
@@ -4407,7 +4952,7 @@
       <c r="Z118" s="7"/>
       <c r="AA118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
       <c r="B119" s="15"/>
       <c r="C119" s="17"/>
@@ -4436,7 +4981,7 @@
       <c r="Z119" s="7"/>
       <c r="AA119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="17"/>
       <c r="B120" s="15"/>
       <c r="C120" s="17"/>
@@ -4465,7 +5010,7 @@
       <c r="Z120" s="7"/>
       <c r="AA120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="17"/>
       <c r="B121" s="15"/>
       <c r="C121" s="17"/>
@@ -4494,7 +5039,7 @@
       <c r="Z121" s="7"/>
       <c r="AA121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="17"/>
       <c r="B122" s="15"/>
       <c r="C122" s="17"/>
@@ -4523,7 +5068,7 @@
       <c r="Z122" s="7"/>
       <c r="AA122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="17"/>
       <c r="B123" s="15"/>
       <c r="C123" s="17"/>
@@ -4552,7 +5097,7 @@
       <c r="Z123" s="7"/>
       <c r="AA123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
       <c r="B124" s="15"/>
       <c r="C124" s="17"/>
@@ -4581,7 +5126,7 @@
       <c r="Z124" s="7"/>
       <c r="AA124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="15"/>
       <c r="C125" s="17"/>
@@ -4610,7 +5155,7 @@
       <c r="Z125" s="7"/>
       <c r="AA125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="15"/>
       <c r="C126" s="17"/>
@@ -4639,7 +5184,7 @@
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="B127" s="15"/>
       <c r="C127" s="17"/>
@@ -4668,7 +5213,7 @@
       <c r="Z127" s="7"/>
       <c r="AA127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="B128" s="15"/>
       <c r="C128" s="17"/>
@@ -4697,7 +5242,7 @@
       <c r="Z128" s="7"/>
       <c r="AA128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="B129" s="15"/>
       <c r="C129" s="17"/>
@@ -4726,7 +5271,7 @@
       <c r="Z129" s="7"/>
       <c r="AA129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="B130" s="15"/>
       <c r="C130" s="17"/>
@@ -4755,7 +5300,7 @@
       <c r="Z130" s="7"/>
       <c r="AA130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
       <c r="B131" s="15"/>
       <c r="C131" s="17"/>
@@ -4784,7 +5329,7 @@
       <c r="Z131" s="7"/>
       <c r="AA131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
       <c r="B132" s="15"/>
       <c r="C132" s="17"/>
@@ -4813,7 +5358,7 @@
       <c r="Z132" s="7"/>
       <c r="AA132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
       <c r="B133" s="15"/>
       <c r="C133" s="17"/>
@@ -4842,7 +5387,7 @@
       <c r="Z133" s="7"/>
       <c r="AA133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
       <c r="B134" s="15"/>
       <c r="C134" s="17"/>
@@ -4871,7 +5416,7 @@
       <c r="Z134" s="7"/>
       <c r="AA134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
       <c r="B135" s="15"/>
       <c r="C135" s="17"/>
@@ -4900,7 +5445,7 @@
       <c r="Z135" s="7"/>
       <c r="AA135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
       <c r="B136" s="15"/>
       <c r="C136" s="17"/>
@@ -4929,7 +5474,7 @@
       <c r="Z136" s="7"/>
       <c r="AA136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
       <c r="B137" s="15"/>
       <c r="C137" s="17"/>
@@ -4958,7 +5503,7 @@
       <c r="Z137" s="7"/>
       <c r="AA137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="B138" s="15"/>
       <c r="C138" s="17"/>
@@ -4987,7 +5532,7 @@
       <c r="Z138" s="7"/>
       <c r="AA138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
       <c r="B139" s="15"/>
       <c r="C139" s="17"/>
@@ -5016,7 +5561,7 @@
       <c r="Z139" s="7"/>
       <c r="AA139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
       <c r="B140" s="15"/>
       <c r="C140" s="17"/>
@@ -5045,7 +5590,7 @@
       <c r="Z140" s="7"/>
       <c r="AA140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
       <c r="B141" s="15"/>
       <c r="C141" s="17"/>
@@ -5074,7 +5619,7 @@
       <c r="Z141" s="7"/>
       <c r="AA141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
       <c r="B142" s="15"/>
       <c r="C142" s="17"/>
@@ -5103,7 +5648,7 @@
       <c r="Z142" s="7"/>
       <c r="AA142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="15"/>
       <c r="C143" s="17"/>
@@ -5132,7 +5677,7 @@
       <c r="Z143" s="7"/>
       <c r="AA143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="15"/>
       <c r="C144" s="17"/>
@@ -5161,7 +5706,7 @@
       <c r="Z144" s="7"/>
       <c r="AA144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
       <c r="B145" s="15"/>
       <c r="C145" s="17"/>
@@ -5190,7 +5735,7 @@
       <c r="Z145" s="7"/>
       <c r="AA145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
       <c r="B146" s="15"/>
       <c r="C146" s="17"/>
@@ -5219,7 +5764,7 @@
       <c r="Z146" s="7"/>
       <c r="AA146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
       <c r="B147" s="15"/>
       <c r="C147" s="17"/>
@@ -5248,7 +5793,7 @@
       <c r="Z147" s="7"/>
       <c r="AA147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="15"/>
       <c r="C148" s="17"/>
@@ -5277,7 +5822,7 @@
       <c r="Z148" s="7"/>
       <c r="AA148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="15"/>
       <c r="C149" s="17"/>
@@ -5306,7 +5851,7 @@
       <c r="Z149" s="7"/>
       <c r="AA149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="B150" s="15"/>
       <c r="C150" s="17"/>
@@ -5335,7 +5880,7 @@
       <c r="Z150" s="7"/>
       <c r="AA150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="B151" s="15"/>
       <c r="C151" s="17"/>
@@ -5364,7 +5909,7 @@
       <c r="Z151" s="7"/>
       <c r="AA151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="B152" s="15"/>
       <c r="C152" s="17"/>
@@ -5393,7 +5938,7 @@
       <c r="Z152" s="7"/>
       <c r="AA152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="B153" s="15"/>
       <c r="C153" s="17"/>
@@ -5422,7 +5967,7 @@
       <c r="Z153" s="7"/>
       <c r="AA153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="B154" s="15"/>
       <c r="C154" s="17"/>
@@ -5451,7 +5996,7 @@
       <c r="Z154" s="7"/>
       <c r="AA154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="B155" s="15"/>
       <c r="C155" s="17"/>
@@ -5480,7 +6025,7 @@
       <c r="Z155" s="7"/>
       <c r="AA155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="B156" s="15"/>
       <c r="C156" s="17"/>
@@ -5509,7 +6054,7 @@
       <c r="Z156" s="7"/>
       <c r="AA156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
       <c r="B157" s="15"/>
       <c r="C157" s="17"/>
@@ -5538,7 +6083,7 @@
       <c r="Z157" s="7"/>
       <c r="AA157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
       <c r="B158" s="15"/>
       <c r="C158" s="17"/>
@@ -5567,7 +6112,7 @@
       <c r="Z158" s="7"/>
       <c r="AA158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
       <c r="B159" s="15"/>
       <c r="C159" s="17"/>
@@ -5596,7 +6141,7 @@
       <c r="Z159" s="7"/>
       <c r="AA159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
       <c r="B160" s="15"/>
       <c r="C160" s="17"/>
@@ -5625,7 +6170,7 @@
       <c r="Z160" s="7"/>
       <c r="AA160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
       <c r="B161" s="15"/>
       <c r="C161" s="17"/>
@@ -5654,7 +6199,7 @@
       <c r="Z161" s="7"/>
       <c r="AA161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
       <c r="B162" s="15"/>
       <c r="C162" s="17"/>
@@ -5683,7 +6228,7 @@
       <c r="Z162" s="7"/>
       <c r="AA162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
       <c r="B163" s="15"/>
       <c r="C163" s="17"/>
@@ -5712,7 +6257,7 @@
       <c r="Z163" s="7"/>
       <c r="AA163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
       <c r="B164" s="15"/>
       <c r="C164" s="17"/>
@@ -5741,7 +6286,7 @@
       <c r="Z164" s="7"/>
       <c r="AA164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
       <c r="B165" s="15"/>
       <c r="C165" s="17"/>
@@ -5770,7 +6315,7 @@
       <c r="Z165" s="7"/>
       <c r="AA165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
       <c r="B166" s="15"/>
       <c r="C166" s="17"/>
@@ -5799,7 +6344,7 @@
       <c r="Z166" s="7"/>
       <c r="AA166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
       <c r="B167" s="15"/>
       <c r="C167" s="17"/>
@@ -5828,7 +6373,7 @@
       <c r="Z167" s="7"/>
       <c r="AA167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="B168" s="15"/>
       <c r="C168" s="17"/>
@@ -5857,7 +6402,7 @@
       <c r="Z168" s="7"/>
       <c r="AA168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
       <c r="B169" s="15"/>
       <c r="C169" s="17"/>
@@ -5886,7 +6431,7 @@
       <c r="Z169" s="7"/>
       <c r="AA169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="17"/>
       <c r="B170" s="15"/>
       <c r="C170" s="17"/>
@@ -5915,7 +6460,7 @@
       <c r="Z170" s="7"/>
       <c r="AA170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="17"/>
       <c r="B171" s="15"/>
       <c r="C171" s="17"/>
@@ -5944,7 +6489,7 @@
       <c r="Z171" s="7"/>
       <c r="AA171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="17"/>
       <c r="B172" s="15"/>
       <c r="C172" s="17"/>
@@ -5973,7 +6518,7 @@
       <c r="Z172" s="7"/>
       <c r="AA172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="17"/>
       <c r="B173" s="15"/>
       <c r="C173" s="17"/>
@@ -6002,7 +6547,7 @@
       <c r="Z173" s="7"/>
       <c r="AA173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="17"/>
       <c r="B174" s="15"/>
       <c r="C174" s="17"/>
@@ -6031,7 +6576,7 @@
       <c r="Z174" s="7"/>
       <c r="AA174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="17"/>
       <c r="B175" s="15"/>
       <c r="C175" s="17"/>
@@ -6060,7 +6605,7 @@
       <c r="Z175" s="7"/>
       <c r="AA175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="17"/>
       <c r="B176" s="15"/>
       <c r="C176" s="17"/>
@@ -6089,7 +6634,7 @@
       <c r="Z176" s="7"/>
       <c r="AA176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="17"/>
       <c r="B177" s="15"/>
       <c r="C177" s="17"/>
@@ -6118,7 +6663,7 @@
       <c r="Z177" s="7"/>
       <c r="AA177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="17"/>
       <c r="B178" s="15"/>
       <c r="C178" s="17"/>
@@ -6147,7 +6692,7 @@
       <c r="Z178" s="7"/>
       <c r="AA178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="17"/>
       <c r="B179" s="15"/>
       <c r="C179" s="17"/>
@@ -6176,7 +6721,7 @@
       <c r="Z179" s="7"/>
       <c r="AA179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="17"/>
       <c r="B180" s="15"/>
       <c r="C180" s="17"/>
@@ -6205,7 +6750,7 @@
       <c r="Z180" s="7"/>
       <c r="AA180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="17"/>
       <c r="B181" s="15"/>
       <c r="C181" s="17"/>
@@ -6234,7 +6779,7 @@
       <c r="Z181" s="7"/>
       <c r="AA181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="17"/>
       <c r="B182" s="15"/>
       <c r="C182" s="17"/>
@@ -6263,7 +6808,7 @@
       <c r="Z182" s="7"/>
       <c r="AA182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="17"/>
       <c r="B183" s="15"/>
       <c r="C183" s="17"/>
@@ -6292,7 +6837,7 @@
       <c r="Z183" s="7"/>
       <c r="AA183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="17"/>
       <c r="B184" s="15"/>
       <c r="C184" s="17"/>
@@ -6321,7 +6866,7 @@
       <c r="Z184" s="7"/>
       <c r="AA184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="17"/>
       <c r="B185" s="15"/>
       <c r="C185" s="17"/>
@@ -6350,7 +6895,7 @@
       <c r="Z185" s="7"/>
       <c r="AA185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="17"/>
       <c r="B186" s="15"/>
       <c r="C186" s="17"/>
@@ -6379,7 +6924,7 @@
       <c r="Z186" s="7"/>
       <c r="AA186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="17"/>
       <c r="B187" s="15"/>
       <c r="C187" s="17"/>
@@ -6408,7 +6953,7 @@
       <c r="Z187" s="7"/>
       <c r="AA187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="17"/>
       <c r="B188" s="15"/>
       <c r="C188" s="17"/>
@@ -6437,7 +6982,7 @@
       <c r="Z188" s="7"/>
       <c r="AA188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="17"/>
       <c r="B189" s="15"/>
       <c r="C189" s="17"/>
@@ -6466,7 +7011,7 @@
       <c r="Z189" s="7"/>
       <c r="AA189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="17"/>
       <c r="B190" s="15"/>
       <c r="C190" s="17"/>
@@ -6495,7 +7040,7 @@
       <c r="Z190" s="7"/>
       <c r="AA190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="17"/>
       <c r="B191" s="15"/>
       <c r="C191" s="17"/>
@@ -6524,7 +7069,7 @@
       <c r="Z191" s="7"/>
       <c r="AA191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="17"/>
       <c r="B192" s="15"/>
       <c r="C192" s="17"/>
@@ -6553,7 +7098,7 @@
       <c r="Z192" s="7"/>
       <c r="AA192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="17"/>
       <c r="B193" s="15"/>
       <c r="C193" s="17"/>
@@ -6582,7 +7127,7 @@
       <c r="Z193" s="7"/>
       <c r="AA193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="17"/>
       <c r="B194" s="15"/>
       <c r="C194" s="17"/>
@@ -6611,7 +7156,7 @@
       <c r="Z194" s="7"/>
       <c r="AA194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="17"/>
       <c r="B195" s="15"/>
       <c r="C195" s="17"/>
@@ -6640,7 +7185,7 @@
       <c r="Z195" s="7"/>
       <c r="AA195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="17"/>
       <c r="B196" s="15"/>
       <c r="C196" s="17"/>
@@ -6669,7 +7214,7 @@
       <c r="Z196" s="7"/>
       <c r="AA196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="17"/>
       <c r="B197" s="15"/>
       <c r="C197" s="17"/>
@@ -6698,7 +7243,7 @@
       <c r="Z197" s="7"/>
       <c r="AA197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="17"/>
       <c r="B198" s="15"/>
       <c r="C198" s="17"/>
@@ -6727,7 +7272,7 @@
       <c r="Z198" s="7"/>
       <c r="AA198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="17"/>
       <c r="B199" s="15"/>
       <c r="C199" s="17"/>
@@ -6756,7 +7301,7 @@
       <c r="Z199" s="7"/>
       <c r="AA199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="17"/>
       <c r="B200" s="15"/>
       <c r="C200" s="17"/>
@@ -6785,7 +7330,7 @@
       <c r="Z200" s="7"/>
       <c r="AA200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="17"/>
       <c r="B201" s="15"/>
       <c r="C201" s="17"/>
@@ -6814,7 +7359,7 @@
       <c r="Z201" s="7"/>
       <c r="AA201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="17"/>
       <c r="B202" s="15"/>
       <c r="C202" s="17"/>
@@ -6843,7 +7388,7 @@
       <c r="Z202" s="7"/>
       <c r="AA202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="17"/>
       <c r="B203" s="15"/>
       <c r="C203" s="17"/>
@@ -6872,7 +7417,7 @@
       <c r="Z203" s="7"/>
       <c r="AA203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="17"/>
       <c r="B204" s="15"/>
       <c r="C204" s="17"/>
@@ -6901,7 +7446,7 @@
       <c r="Z204" s="7"/>
       <c r="AA204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="17"/>
       <c r="B205" s="15"/>
       <c r="C205" s="17"/>
@@ -6930,7 +7475,7 @@
       <c r="Z205" s="7"/>
       <c r="AA205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="17"/>
       <c r="B206" s="15"/>
       <c r="C206" s="17"/>
@@ -6959,7 +7504,7 @@
       <c r="Z206" s="7"/>
       <c r="AA206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="17"/>
       <c r="B207" s="15"/>
       <c r="C207" s="17"/>
@@ -6988,7 +7533,7 @@
       <c r="Z207" s="7"/>
       <c r="AA207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="17"/>
       <c r="B208" s="15"/>
       <c r="C208" s="17"/>
@@ -7017,7 +7562,7 @@
       <c r="Z208" s="7"/>
       <c r="AA208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="17"/>
       <c r="B209" s="15"/>
       <c r="C209" s="17"/>
@@ -7046,7 +7591,7 @@
       <c r="Z209" s="7"/>
       <c r="AA209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="17"/>
       <c r="B210" s="15"/>
       <c r="C210" s="17"/>
@@ -7075,7 +7620,7 @@
       <c r="Z210" s="7"/>
       <c r="AA210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="17"/>
       <c r="B211" s="15"/>
       <c r="C211" s="17"/>
@@ -7104,7 +7649,7 @@
       <c r="Z211" s="7"/>
       <c r="AA211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="17"/>
       <c r="B212" s="15"/>
       <c r="C212" s="17"/>
@@ -7133,7 +7678,7 @@
       <c r="Z212" s="7"/>
       <c r="AA212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="17"/>
       <c r="B213" s="15"/>
       <c r="C213" s="17"/>
@@ -7162,7 +7707,7 @@
       <c r="Z213" s="7"/>
       <c r="AA213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="17"/>
       <c r="B214" s="15"/>
       <c r="C214" s="17"/>
@@ -7191,7 +7736,7 @@
       <c r="Z214" s="7"/>
       <c r="AA214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="17"/>
       <c r="B215" s="15"/>
       <c r="C215" s="17"/>
@@ -7220,7 +7765,7 @@
       <c r="Z215" s="7"/>
       <c r="AA215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="17"/>
       <c r="B216" s="15"/>
       <c r="C216" s="17"/>
@@ -7249,7 +7794,7 @@
       <c r="Z216" s="7"/>
       <c r="AA216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="17"/>
       <c r="B217" s="15"/>
       <c r="C217" s="17"/>
@@ -7278,7 +7823,7 @@
       <c r="Z217" s="7"/>
       <c r="AA217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="17"/>
       <c r="B218" s="15"/>
       <c r="C218" s="17"/>
@@ -7307,7 +7852,7 @@
       <c r="Z218" s="7"/>
       <c r="AA218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="17"/>
       <c r="B219" s="15"/>
       <c r="C219" s="17"/>
@@ -7336,7 +7881,7 @@
       <c r="Z219" s="7"/>
       <c r="AA219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="17"/>
       <c r="B220" s="15"/>
       <c r="C220" s="17"/>
@@ -7365,7 +7910,7 @@
       <c r="Z220" s="7"/>
       <c r="AA220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="17"/>
       <c r="B221" s="15"/>
       <c r="C221" s="17"/>
@@ -7394,789 +7939,792 @@
       <c r="Z221" s="7"/>
       <c r="AA221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>